--- a/Semantic Grounding, Instance Labelling, Ontology-level evaluation/ontology-level evaluation.xlsx
+++ b/Semantic Grounding, Instance Labelling, Ontology-level evaluation/ontology-level evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\GitHub\tag-relation-learning\Semantic Grounding, Instance Labelling, Ontology-level evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01EC758-E633-4886-9740-32EC4E769471}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2AE778-41A6-4B43-9291-100D6813B028}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
   <si>
     <t>dbpedia</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,27 +45,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TF'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TF'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SVM) TF'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(AdaBoost)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AdaBoost) TF'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>113 concepts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,14 +166,6 @@
     <t>economics domain: considering 3 layers</t>
   </si>
   <si>
-    <t>we you concepts "without leaf": not matching to the leaf nodes within the depth of the layers in the Knowledge Base.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>we you concepts "with leaf": also matching to the leaf nodes within the depth of the layers in the Knowledge Base.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SVM - TO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +179,14 @@
   </si>
   <si>
     <t>Ada - TO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concepts "with leaf": also matching to the leaf nodes within the depth of the layers in the Knowledge Base.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concepts "without leaf": not matching to the leaf nodes within the depth of the layers in the Knowledge Base.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1103,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-education'!$F$3</c:f>
+              <c:f>'dbpedia-education'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1161,7 +1141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-education'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-education'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1197,7 +1177,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-education'!$E$3</c:f>
+              <c:f>'dbpedia-education'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1235,7 +1215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-education'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-education'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1660,7 +1640,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-economics'!$F$3</c:f>
+              <c:f>'dbpedia-economics'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1698,7 +1678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-economics'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-economics'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1734,7 +1714,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-economics'!$E$3</c:f>
+              <c:f>'dbpedia-economics'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1772,7 +1752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-economics'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-economics'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1933,7 +1913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-CS+IS'!$F$3</c:f>
+              <c:f>'dbpedia-CS+IS'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1981,7 +1961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-CS+IS'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-CS+IS'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2017,7 +1997,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-CS+IS'!$E$3</c:f>
+              <c:f>'dbpedia-CS+IS'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2065,7 +2045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-CS+IS'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-CS+IS'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2391,7 +2371,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-education'!$F$3</c:f>
+              <c:f>'dbpedia-education'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +2419,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-education'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-education'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2475,7 +2455,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-education'!$E$3</c:f>
+              <c:f>'dbpedia-education'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +2503,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-education'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-education'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2844,7 +2824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-economics'!$F$3</c:f>
+              <c:f>'dbpedia-economics'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2892,7 +2872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-economics'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-economics'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2928,7 +2908,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-economics'!$E$3</c:f>
+              <c:f>'dbpedia-economics'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2976,7 +2956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-economics'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-economics'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3293,7 +3273,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$F$5</c:f>
+              <c:f>'css-all'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3341,7 +3321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$F$6:$F$11</c:f>
+              <c:f>'css-all'!$E$6:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3377,7 +3357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$E$5</c:f>
+              <c:f>'css-all'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3425,7 +3405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$E$6:$E$11</c:f>
+              <c:f>'css-all'!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3742,7 +3722,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$F$19</c:f>
+              <c:f>'css-all'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3790,7 +3770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$F$20:$F$25</c:f>
+              <c:f>'css-all'!$E$20:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3826,7 +3806,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$E$19</c:f>
+              <c:f>'css-all'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3874,7 +3854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$E$20:$E$25</c:f>
+              <c:f>'css-all'!$D$20:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4191,7 +4171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$F$32</c:f>
+              <c:f>'css-all'!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4239,7 +4219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$F$33:$F$38</c:f>
+              <c:f>'css-all'!$E$33:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4275,7 +4255,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'css-all'!$E$32</c:f>
+              <c:f>'css-all'!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4323,7 +4303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'css-all'!$E$33:$E$38</c:f>
+              <c:f>'css-all'!$D$33:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4908,7 +4888,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-CS+IS'!$F$3</c:f>
+              <c:f>'dbpedia-CS+IS'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4946,7 +4926,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-CS+IS'!$F$4:$F$9</c:f>
+              <c:f>'dbpedia-CS+IS'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4982,7 +4962,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dbpedia-CS+IS'!$E$3</c:f>
+              <c:f>'dbpedia-CS+IS'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5020,7 +5000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dbpedia-CS+IS'!$E$4:$E$9</c:f>
+              <c:f>'dbpedia-CS+IS'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5368,13 +5348,13 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>28904</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>43353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>517904</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>21554</xdr:rowOff>
@@ -5438,15 +5418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>131700</xdr:rowOff>
+      <xdr:rowOff>160275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>318793</xdr:colOff>
+      <xdr:colOff>528343</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>134749</xdr:rowOff>
+      <xdr:rowOff>163324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5508,16 +5488,16 @@
   </xdr:absoluteAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>56236</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589636</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>613154</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3049</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5870,10 +5850,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EDD43F-A6B3-42D3-BDB2-FC9A6711956C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="J25" sqref="J25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5881,45 +5861,43 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
@@ -5928,18 +5906,12 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>0.14180000000000001</v>
@@ -5948,21 +5920,15 @@
         <v>0.1361</v>
       </c>
       <c r="D8" s="4">
-        <v>1.9300000000000001E-2</v>
+        <v>0.1208</v>
       </c>
       <c r="E8" s="4">
-        <v>0.1208</v>
-      </c>
-      <c r="F8" s="4">
         <v>0.11409999999999999</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>0.19439999999999999</v>
@@ -5971,21 +5937,15 @@
         <v>0.1865</v>
       </c>
       <c r="D9" s="4">
-        <v>2.4199999999999999E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="F9" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="G9" s="4">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>0.2104</v>
@@ -5994,21 +5954,15 @@
         <v>0.2024</v>
       </c>
       <c r="D10" s="4">
-        <v>2.5100000000000001E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="F10" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G10" s="4">
-        <v>4.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
         <v>0.18840000000000001</v>
@@ -6017,21 +5971,15 @@
         <v>0.18</v>
       </c>
       <c r="D11" s="4">
-        <v>2.3099999999999999E-2</v>
+        <v>0.1338</v>
       </c>
       <c r="E11" s="4">
-        <v>0.1338</v>
-      </c>
-      <c r="F11" s="4">
         <v>0.127</v>
       </c>
-      <c r="G11" s="4">
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4">
         <v>0.17549999999999999</v>
@@ -6040,21 +5988,15 @@
         <v>0.16719999999999999</v>
       </c>
       <c r="D12" s="4">
-        <v>2.2800000000000001E-2</v>
+        <v>0.1231</v>
       </c>
       <c r="E12" s="4">
-        <v>0.1231</v>
-      </c>
-      <c r="F12" s="4">
         <v>0.12089999999999999</v>
       </c>
-      <c r="G12" s="4">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4">
         <v>0.20349999999999999</v>
@@ -6063,50 +6005,42 @@
         <v>0.1971</v>
       </c>
       <c r="D13" s="4">
-        <v>2.3800000000000002E-2</v>
+        <v>0.1336</v>
       </c>
       <c r="E13" s="4">
-        <v>0.1336</v>
-      </c>
-      <c r="F13" s="4">
         <v>0.1268</v>
       </c>
-      <c r="G13" s="4">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -6115,18 +6049,12 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4">
         <v>0.13</v>
@@ -6135,21 +6063,15 @@
         <v>0.1188</v>
       </c>
       <c r="D20" s="4">
-        <v>5.1999999999999998E-3</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="E20" s="4">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="F20" s="4">
         <v>0.13089999999999999</v>
       </c>
-      <c r="G20" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4">
         <v>0.19439999999999999</v>
@@ -6158,21 +6080,15 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="D21" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="F21" s="4">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="G21" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4">
         <v>0.1938</v>
@@ -6181,21 +6097,15 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="D22" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="F22" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="G22" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
         <v>0.18390000000000001</v>
@@ -6204,21 +6114,15 @@
         <v>0.16980000000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="E23" s="4">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="F23" s="4">
         <v>0.1023</v>
       </c>
-      <c r="G23" s="4">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4">
         <v>0.17019999999999999</v>
@@ -6226,22 +6130,16 @@
       <c r="C24" s="4">
         <v>0.15770000000000001</v>
       </c>
-      <c r="D24" s="4">
-        <v>8.3999999999999995E-3</v>
+      <c r="D24" s="7">
+        <v>0.1195</v>
       </c>
       <c r="E24" s="7">
-        <v>0.1195</v>
-      </c>
-      <c r="F24" s="7">
         <v>0.1123</v>
       </c>
-      <c r="G24" s="7">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4">
         <v>0.19670000000000001</v>
@@ -6249,51 +6147,43 @@
       <c r="C25" s="4">
         <v>0.18290000000000001</v>
       </c>
-      <c r="D25" s="4">
-        <v>9.1999999999999998E-3</v>
+      <c r="D25" s="7">
+        <v>0.1108</v>
       </c>
       <c r="E25" s="7">
-        <v>0.1108</v>
-      </c>
-      <c r="F25" s="7">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="G25" s="7">
-        <v>4.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -6302,18 +6192,12 @@
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B32" s="8">
         <v>0.1076</v>
@@ -6322,21 +6206,15 @@
         <v>0.1032</v>
       </c>
       <c r="D32" s="8">
-        <v>6.1000000000000004E-3</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="E32" s="8">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="F32" s="8">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="G32" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B33" s="8">
         <v>0.15909999999999999</v>
@@ -6345,21 +6223,15 @@
         <v>0.15260000000000001</v>
       </c>
       <c r="D33" s="8">
-        <v>7.6E-3</v>
+        <v>0.08</v>
       </c>
       <c r="E33" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F33" s="8">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="G33" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" s="8">
         <v>0.15409999999999999</v>
@@ -6368,21 +6240,15 @@
         <v>0.1464</v>
       </c>
       <c r="D34" s="8">
-        <v>8.2000000000000007E-3</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="E34" s="8">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="F34" s="8">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G34" s="8">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="8">
         <v>0.1447</v>
@@ -6391,21 +6257,15 @@
         <v>0.13919999999999999</v>
       </c>
       <c r="D35" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="E35" s="8">
-        <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="F35" s="8">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="G35" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B36" s="7">
         <v>0.12509999999999999</v>
@@ -6414,21 +6274,15 @@
         <v>0.1198</v>
       </c>
       <c r="D36" s="7">
-        <v>6.8999999999999999E-3</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="E36" s="7">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="F36" s="7">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="G36" s="7">
-        <v>3.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B37" s="7">
         <v>0.14419999999999999</v>
@@ -6437,105 +6291,92 @@
         <v>0.1394</v>
       </c>
       <c r="D37" s="7">
-        <v>7.4999999999999997E-3</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="E37" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F37" s="7">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="G37" s="7">
-        <v>3.8E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DBF3A0-0726-4F57-B026-1996511DA3F2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>0.21879999999999999</v>
@@ -6544,21 +6385,15 @@
         <v>0.20019999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>5.6800000000000003E-2</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>0.23230000000000001</v>
-      </c>
-      <c r="F6" s="4">
         <v>0.2087</v>
       </c>
-      <c r="G6" s="4">
-        <v>5.4899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>0.31440000000000001</v>
@@ -6567,21 +6402,15 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="D7" s="4">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="E7" s="4">
-        <v>0.1275</v>
-      </c>
-      <c r="F7" s="4">
         <v>0.1236</v>
       </c>
-      <c r="G7" s="4">
-        <v>2.4199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>0.26989999999999997</v>
@@ -6590,21 +6419,15 @@
         <v>0.2492</v>
       </c>
       <c r="D8" s="4">
-        <v>6.0400000000000002E-2</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="E8" s="4">
-        <v>9.4500000000000001E-2</v>
-      </c>
-      <c r="F8" s="4">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="G8" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>0.21740000000000001</v>
@@ -6613,21 +6436,15 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="D9" s="4">
-        <v>5.5399999999999998E-2</v>
+        <v>0.2324</v>
       </c>
       <c r="E9" s="4">
-        <v>0.2324</v>
-      </c>
-      <c r="F9" s="4">
         <v>0.2157</v>
       </c>
-      <c r="G9" s="4">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
         <v>0.31759999999999999</v>
@@ -6636,21 +6453,15 @@
         <v>0.30249999999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>6.4199999999999993E-2</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="E10" s="4">
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="F10" s="4">
         <v>0.2243</v>
       </c>
-      <c r="G10" s="4">
-        <v>5.1200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4">
         <v>0.24590000000000001</v>
@@ -6659,78 +6470,64 @@
         <v>0.22739999999999999</v>
       </c>
       <c r="D11" s="4">
-        <v>5.5399999999999998E-2</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="E11" s="4">
-        <v>0.20730000000000001</v>
-      </c>
-      <c r="F11" s="4">
         <v>0.1913</v>
       </c>
-      <c r="G11" s="4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4">
         <v>0.16289999999999999</v>
@@ -6739,21 +6536,15 @@
         <v>0.15579999999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>6.0900000000000003E-2</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="E20" s="4">
-        <v>0.15040000000000001</v>
-      </c>
-      <c r="F20" s="4">
         <v>0.1414</v>
       </c>
-      <c r="G20" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4">
         <v>0.21959999999999999</v>
@@ -6762,21 +6553,15 @@
         <v>0.21029999999999999</v>
       </c>
       <c r="D21" s="4">
-        <v>8.1600000000000006E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>7.51E-2</v>
-      </c>
-      <c r="F21" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="G21" s="4">
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="4">
         <v>0.2089</v>
@@ -6785,21 +6570,15 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="D22" s="4">
-        <v>8.1600000000000006E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="F22" s="4">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="G22" s="4">
-        <v>2.8299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
         <v>0.18890000000000001</v>
@@ -6808,21 +6587,15 @@
         <v>0.1804</v>
       </c>
       <c r="D23" s="4">
-        <v>7.9600000000000004E-2</v>
+        <v>0.1681</v>
       </c>
       <c r="E23" s="4">
-        <v>0.1681</v>
-      </c>
-      <c r="F23" s="4">
         <v>0.16170000000000001</v>
       </c>
-      <c r="G23" s="4">
-        <v>5.9700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4">
         <v>0.20619999999999999</v>
@@ -6831,24 +6604,18 @@
         <v>0.19950000000000001</v>
       </c>
       <c r="D24" s="4">
-        <v>7.3400000000000007E-2</v>
+        <v>0.1361</v>
       </c>
       <c r="E24" s="4">
-        <v>0.1361</v>
-      </c>
-      <c r="F24" s="4">
         <v>0.12959999999999999</v>
       </c>
-      <c r="G24" s="4">
-        <v>4.4699999999999997E-2</v>
-      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" s="4">
         <v>0.19089999999999999</v>
@@ -6857,73 +6624,59 @@
         <v>0.18390000000000001</v>
       </c>
       <c r="D25" s="4">
-        <v>7.6399999999999996E-2</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="E25" s="4">
-        <v>0.17760000000000001</v>
-      </c>
-      <c r="F25" s="4">
         <v>0.17069999999999999</v>
       </c>
-      <c r="G25" s="4">
-        <v>6.5600000000000006E-2</v>
-      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4">
         <v>0.1459</v>
@@ -6932,21 +6685,15 @@
         <v>0.1399</v>
       </c>
       <c r="D33" s="4">
-        <v>5.5100000000000003E-2</v>
+        <v>0.1353</v>
       </c>
       <c r="E33" s="4">
-        <v>0.1353</v>
-      </c>
-      <c r="F33" s="4">
         <v>0.12759999999999999</v>
       </c>
-      <c r="G33" s="4">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34" s="4">
         <v>0.20910000000000001</v>
@@ -6955,21 +6702,15 @@
         <v>0.20130000000000001</v>
       </c>
       <c r="D34" s="4">
-        <v>8.2900000000000001E-2</v>
+        <v>7.1300000000000002E-2</v>
       </c>
       <c r="E34" s="4">
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="F34" s="4">
         <v>7.0099999999999996E-2</v>
       </c>
-      <c r="G34" s="4">
-        <v>2.58E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B35" s="4">
         <v>0.2001</v>
@@ -6978,21 +6719,15 @@
         <v>0.19339999999999999</v>
       </c>
       <c r="D35" s="4">
-        <v>8.2900000000000001E-2</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="E35" s="4">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="F35" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G35" s="4">
-        <v>2.7400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4">
         <v>0.18310000000000001</v>
@@ -7001,21 +6736,15 @@
         <v>0.17580000000000001</v>
       </c>
       <c r="D36" s="4">
-        <v>8.1299999999999997E-2</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="E36" s="4">
-        <v>0.15029999999999999</v>
-      </c>
-      <c r="F36" s="4">
         <v>0.1449</v>
       </c>
-      <c r="G36" s="4">
-        <v>5.4100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4">
         <v>0.1978</v>
@@ -7024,21 +6753,15 @@
         <v>0.19209999999999999</v>
       </c>
       <c r="D37" s="4">
-        <v>7.5999999999999998E-2</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="E37" s="4">
-        <v>0.13059999999999999</v>
-      </c>
-      <c r="F37" s="4">
         <v>0.12509999999999999</v>
       </c>
-      <c r="G37" s="4">
-        <v>4.7300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B38" s="4">
         <v>0.18479999999999999</v>
@@ -7047,34 +6770,28 @@
         <v>0.17879999999999999</v>
       </c>
       <c r="D38" s="4">
-        <v>7.8600000000000003E-2</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="E38" s="4">
-        <v>0.15840000000000001</v>
-      </c>
-      <c r="F38" s="4">
         <v>0.15260000000000001</v>
       </c>
-      <c r="G38" s="4">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7085,64 +6802,54 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>0.14180000000000001</v>
@@ -7151,22 +6858,16 @@
         <v>0.1361</v>
       </c>
       <c r="D4" s="4">
-        <v>1.9300000000000001E-2</v>
+        <v>0.1208</v>
       </c>
       <c r="E4" s="4">
-        <v>0.1208</v>
-      </c>
-      <c r="F4" s="4">
         <v>0.11409999999999999</v>
       </c>
-      <c r="G4" s="4">
-        <v>1.11E-2</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>0.19439999999999999</v>
@@ -7175,22 +6876,16 @@
         <v>0.1865</v>
       </c>
       <c r="D5" s="4">
-        <v>2.4199999999999999E-2</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="F5" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="G5" s="4">
-        <v>6.6E-3</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>0.2104</v>
@@ -7199,22 +6894,16 @@
         <v>0.2024</v>
       </c>
       <c r="D6" s="4">
-        <v>2.5100000000000001E-2</v>
+        <v>7.1499999999999994E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="F6" s="4">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G6" s="4">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0.18840000000000001</v>
@@ -7223,22 +6912,16 @@
         <v>0.18</v>
       </c>
       <c r="D7" s="4">
-        <v>2.3099999999999999E-2</v>
+        <v>0.1338</v>
       </c>
       <c r="E7" s="4">
-        <v>0.1338</v>
-      </c>
-      <c r="F7" s="4">
         <v>0.127</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.47E-2</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>0.17549999999999999</v>
@@ -7247,22 +6930,16 @@
         <v>0.16719999999999999</v>
       </c>
       <c r="D8" s="4">
-        <v>2.2800000000000001E-2</v>
+        <v>0.1231</v>
       </c>
       <c r="E8" s="4">
-        <v>0.1231</v>
-      </c>
-      <c r="F8" s="4">
         <v>0.12089999999999999</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>0.20349999999999999</v>
@@ -7271,18 +6948,12 @@
         <v>0.1971</v>
       </c>
       <c r="D9" s="4">
-        <v>2.3800000000000002E-2</v>
+        <v>0.1336</v>
       </c>
       <c r="E9" s="4">
-        <v>0.1336</v>
-      </c>
-      <c r="F9" s="4">
         <v>0.1268</v>
       </c>
-      <c r="G9" s="4">
-        <v>1.49E-2</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7300,65 +6971,55 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F880E352-E998-4A63-8BCF-7AF70A860763}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F8" sqref="F8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
         <v>0.13</v>
@@ -7367,21 +7028,15 @@
         <v>0.1188</v>
       </c>
       <c r="D4" s="4">
-        <v>5.1999999999999998E-3</v>
+        <v>0.14069999999999999</v>
       </c>
       <c r="E4" s="4">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="F4" s="4">
         <v>0.13089999999999999</v>
       </c>
-      <c r="G4" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>0.19439999999999999</v>
@@ -7390,21 +7045,15 @@
         <v>0.18179999999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>8.7300000000000003E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="F5" s="4">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="G5" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>0.1938</v>
@@ -7413,21 +7062,15 @@
         <v>0.17949999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>8.0500000000000002E-2</v>
-      </c>
-      <c r="F6" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>0.18390000000000001</v>
@@ -7436,21 +7079,15 @@
         <v>0.16980000000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>9.1999999999999998E-3</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>0.11509999999999999</v>
-      </c>
-      <c r="F7" s="4">
         <v>0.1023</v>
       </c>
-      <c r="G7" s="4">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>0.17019999999999999</v>
@@ -7458,37 +7095,19 @@
       <c r="C8" s="4">
         <v>0.15770000000000001</v>
       </c>
-      <c r="D8" s="4">
-        <v>8.3999999999999995E-3</v>
+      <c r="D8" s="7">
+        <v>0.1195</v>
       </c>
       <c r="E8" s="7">
-        <v>0.1195</v>
-      </c>
-      <c r="F8" s="7">
         <v>0.1123</v>
       </c>
-      <c r="G8" s="7">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.1318</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="K8" s="7">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>0.19670000000000001</v>
@@ -7496,33 +7115,15 @@
       <c r="C9" s="4">
         <v>0.18290000000000001</v>
       </c>
-      <c r="D9" s="4">
-        <v>9.1999999999999998E-3</v>
+      <c r="D9" s="7">
+        <v>0.1108</v>
       </c>
       <c r="E9" s="7">
-        <v>0.1108</v>
-      </c>
-      <c r="F9" s="7">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="G9" s="7">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.1164</v>
-      </c>
-      <c r="J9" s="7">
-        <v>9.98E-2</v>
-      </c>
-      <c r="K9" s="7">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7535,115 +7136,81 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C7B46D-71B1-47C3-8E7D-94681694D90B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="11"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="8">
         <v>0.1076</v>
@@ -7652,28 +7219,22 @@
         <v>0.1032</v>
       </c>
       <c r="D4" s="8">
-        <v>6.1000000000000004E-3</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="E4" s="8">
-        <v>9.6299999999999997E-2</v>
-      </c>
-      <c r="F4" s="8">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="G4" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>0.15909999999999999</v>
@@ -7682,28 +7243,22 @@
         <v>0.15260000000000001</v>
       </c>
       <c r="D5" s="8">
-        <v>7.6E-3</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="8">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="G5" s="8">
-        <v>5.0000000000000001E-4</v>
-      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>0.15409999999999999</v>
@@ -7712,34 +7267,28 @@
         <v>0.1464</v>
       </c>
       <c r="D6" s="8">
-        <v>8.2000000000000007E-3</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="F6" s="8">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G6" s="8">
-        <v>8.9999999999999998E-4</v>
-      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8">
         <v>0.1447</v>
@@ -7748,34 +7297,28 @@
         <v>0.13919999999999999</v>
       </c>
       <c r="D7" s="8">
-        <v>8.3000000000000001E-3</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>9.2100000000000001E-2</v>
-      </c>
-      <c r="F7" s="8">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="G7" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7">
         <v>0.12509999999999999</v>
@@ -7784,52 +7327,30 @@
         <v>0.1198</v>
       </c>
       <c r="D8" s="7">
-        <v>6.8999999999999999E-3</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="E8" s="7">
-        <v>8.6599999999999996E-2</v>
-      </c>
-      <c r="F8" s="7">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="G8" s="7">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="6">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="J8" s="6">
-        <v>7.5399999999999995E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="L8" s="6">
-        <v>5.6900000000000006E-2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5.6299999999999996E-2</v>
-      </c>
-      <c r="N8" s="6">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7">
         <v>0.14419999999999999</v>
@@ -7838,48 +7359,26 @@
         <v>0.1394</v>
       </c>
       <c r="D9" s="7">
-        <v>7.4999999999999997E-3</v>
+        <v>8.5099999999999995E-2</v>
       </c>
       <c r="E9" s="7">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F9" s="7">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="G9" s="7">
-        <v>3.8E-3</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="6">
-        <v>9.8100000000000007E-2</v>
-      </c>
-      <c r="J9" s="6">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="L9" s="6">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="N9" s="6">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="9"/>
+      <c r="T9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
